--- a/Assets/ExcelDataTables/PlayerStatus.xlsx
+++ b/Assets/ExcelDataTables/PlayerStatus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\UnityKoreaAward\Assets\ExcelDataTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA633EED-FD4E-48EE-AA61-A9C05B534395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDEBE17-1DFB-4974-A759-3048032EEC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4450" yWindow="1610" windowWidth="23690" windowHeight="13140" xr2:uid="{CBA24B4D-A6A6-49D6-8A3A-6C778D9FB05C}"/>
+    <workbookView xWindow="1590" yWindow="1470" windowWidth="26505" windowHeight="13515" xr2:uid="{CBA24B4D-A6A6-49D6-8A3A-6C778D9FB05C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,19 +429,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD40E9E4-2AB8-4FC4-8442-EF0044633A66}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="20.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -487,7 +487,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -510,7 +510,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -533,7 +533,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -556,7 +556,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -579,7 +579,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -602,7 +602,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -625,7 +625,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -648,7 +648,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -671,7 +671,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -694,7 +694,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -717,7 +717,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -740,7 +740,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -763,7 +763,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -786,7 +786,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -809,7 +809,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -832,7 +832,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -855,7 +855,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -878,7 +878,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -901,7 +901,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -924,7 +924,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -947,7 +947,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -970,7 +970,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -993,7 +993,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>

--- a/Assets/ExcelDataTables/PlayerStatus.xlsx
+++ b/Assets/ExcelDataTables/PlayerStatus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\UnityKoreaAward\Assets\ExcelDataTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDEBE17-1DFB-4974-A759-3048032EEC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30E1951-06B3-4EEF-A684-B72CAC5C2B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="1470" windowWidth="26505" windowHeight="13515" xr2:uid="{CBA24B4D-A6A6-49D6-8A3A-6C778D9FB05C}"/>
+    <workbookView xWindow="1230" yWindow="615" windowWidth="26505" windowHeight="14565" xr2:uid="{CBA24B4D-A6A6-49D6-8A3A-6C778D9FB05C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,12 +87,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,8 +121,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -429,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD40E9E4-2AB8-4FC4-8442-EF0044633A66}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -442,1175 +460,1175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>100</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>110</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>1.05</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>11</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>120</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>12</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>1.2</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>130</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>13</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>1.3</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>140</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>1.2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>14</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>1.4</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>150</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>1.25</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>15</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>1.5</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>600</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>160</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>1.3</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>16</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>1.6</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>700</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>170</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>1.35</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>17</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>1.7</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>800</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>180</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>1.4</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>18</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>1.8</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>900</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>190</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>1.45</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>19</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>1.9</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>200</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>1.5</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>20</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>2</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>1100</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>210</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>1.55</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>21</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>2.1</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>1200</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>13</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>220</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>1.6</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>22</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>1300</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>14</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>230</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>1.65</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>23</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>1400</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>15</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>240</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>1.7</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>24</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>2.4</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>1500</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>16</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>250</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>1.75</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>25</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>2.5</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>1600</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>17</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>260</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>1.8</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>26</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>2.6</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>1700</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>18</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>270</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>1.85</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>27</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>2.7</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>1800</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>19</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>280</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>1.9</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>28</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>2.8</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>1900</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>20</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>290</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>1.95</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>29</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>2.9</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>2000</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>21</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>300</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>2</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>30</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>3</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>2100</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>22</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>310</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>2.0499999999999998</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>31</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>3.1</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>2200</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>23</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>320</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>2.1</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>32</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>3.2</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <v>2300</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>24</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>330</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>2.15</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>33</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>3.3</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>2400</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>25</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>340</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>34</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>3.4</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <v>2500</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>26</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>350</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>2.25</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>35</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>3.5</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <v>2600</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>27</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>360</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>36</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>3.6</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <v>2700</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>28</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>370</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>2.35</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>37</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>3.7</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
         <v>2800</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>29</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>380</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>2.4</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>38</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>3.8</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <v>2900</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>30</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>390</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>2.4500000000000002</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>39</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>3.9</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1">
         <v>3000</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>31</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>400</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>2.5</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>40</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <v>4</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="1">
         <v>3100</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>32</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>410</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>2.5499999999999998</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>41</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="1">
         <v>3200</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>33</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>420</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>2.6</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>42</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>4.2</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="1">
         <v>3300</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>34</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>430</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>2.65</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>43</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <v>4.3</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="1">
         <v>3400</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>35</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>440</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>2.7</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <v>44</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="1">
         <v>3500</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>36</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>450</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>2.75</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <v>45</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="1">
         <v>4.5</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="1">
         <v>3600</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>37</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>460</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>2.8</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <v>46</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="1">
         <v>3700</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>38</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>470</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>2.85</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
         <v>47</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="1">
         <v>4.7</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="1">
         <v>3800</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>39</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>480</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>2.9</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
         <v>48</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="1">
         <v>4.8</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="1">
         <v>3900</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>40</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>490</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>2.95</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="1">
         <v>49</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="1">
         <v>4000</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>41</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>500</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>3</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="1">
         <v>50</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="1">
         <v>5</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="1">
         <v>4100</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>42</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>510</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>3.05</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="1">
         <v>51</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="1">
         <v>4200</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>43</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>520</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>3.1</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="1">
         <v>52</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="1">
         <v>5.2</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="1">
         <v>4300</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>44</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>530</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>3.15</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="1">
         <v>53</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="1">
         <v>5.3</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="1">
         <v>4400</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>45</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>540</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>3.2</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="1">
         <v>54</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="1">
         <v>5.4</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="1">
         <v>4500</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>46</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>550</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>3.25</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="1">
         <v>55</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="1">
         <v>5.5</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="1">
         <v>4600</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>47</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>560</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>3.3</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="1">
         <v>56</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="1">
         <v>5.6</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="1">
         <v>4700</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>48</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <v>570</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>3.35</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="1">
         <v>57</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="1">
         <v>5.7</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="1">
         <v>4800</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <v>49</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>580</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <v>3.4</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="1">
         <v>58</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="1">
         <v>5.8</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="1">
         <v>4900</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1">
         <v>50</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1">
         <v>590</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
         <v>3.45</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="1">
         <v>59</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="1">
         <v>5.9</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="1">
         <v>5000</v>
       </c>
     </row>

--- a/Assets/ExcelDataTables/PlayerStatus.xlsx
+++ b/Assets/ExcelDataTables/PlayerStatus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\UnityKoreaAward\Assets\ExcelDataTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30E1951-06B3-4EEF-A684-B72CAC5C2B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F68A2D-72B1-40B3-99F1-2BB86C981EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="615" windowWidth="26505" windowHeight="14565" xr2:uid="{CBA24B4D-A6A6-49D6-8A3A-6C778D9FB05C}"/>
+    <workbookView xWindow="1575" yWindow="960" windowWidth="26505" windowHeight="14565" xr2:uid="{CBA24B4D-A6A6-49D6-8A3A-6C778D9FB05C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Id::int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,19 +58,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AttackSpeed::float</t>
+    <t>XPRequiredForLevelUp::int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>XPRequiredForLevelUp::int</t>
+    <t>RateOfFire::float</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectileSpeed::float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,8 +90,21 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,6 +123,17 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -121,7 +149,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -129,6 +157,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -445,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD40E9E4-2AB8-4FC4-8442-EF0044633A66}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -456,10 +496,11 @@
     <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.75" style="4" customWidth="1"/>
+    <col min="8" max="8" width="25.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -476,13 +517,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -498,14 +542,17 @@
       <c r="E2" s="1">
         <v>10</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="6">
         <v>1</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="5">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -521,14 +568,17 @@
       <c r="E3" s="1">
         <v>11</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="5">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -544,14 +594,17 @@
       <c r="E4" s="1">
         <v>12</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="6">
         <v>1.2</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="5">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -567,14 +620,17 @@
       <c r="E5" s="1">
         <v>13</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="6">
         <v>1.3</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="5">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -590,14 +646,17 @@
       <c r="E6" s="1">
         <v>14</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="6">
         <v>1.4</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="5">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -613,14 +672,17 @@
       <c r="E7" s="1">
         <v>15</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="6">
         <v>1.5</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="5">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -636,14 +698,17 @@
       <c r="E8" s="1">
         <v>16</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="6">
         <v>1.6</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="5">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -659,14 +724,17 @@
       <c r="E9" s="1">
         <v>17</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="6">
         <v>1.7</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="5">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1">
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -682,14 +750,17 @@
       <c r="E10" s="1">
         <v>18</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="6">
         <v>1.8</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="5">
+        <v>18</v>
+      </c>
+      <c r="H10" s="1">
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -705,14 +776,17 @@
       <c r="E11" s="1">
         <v>19</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="6">
         <v>1.9</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="5">
+        <v>19</v>
+      </c>
+      <c r="H11" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -728,14 +802,17 @@
       <c r="E12" s="1">
         <v>20</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="6">
         <v>2</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="5">
+        <v>20</v>
+      </c>
+      <c r="H12" s="1">
         <v>1100</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -751,14 +828,17 @@
       <c r="E13" s="1">
         <v>21</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="6">
         <v>2.1</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="5">
+        <v>21</v>
+      </c>
+      <c r="H13" s="1">
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -774,14 +854,17 @@
       <c r="E14" s="1">
         <v>22</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="5">
+        <v>22</v>
+      </c>
+      <c r="H14" s="1">
         <v>1300</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -797,14 +880,17 @@
       <c r="E15" s="1">
         <v>23</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="5">
+        <v>23</v>
+      </c>
+      <c r="H15" s="1">
         <v>1400</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -820,14 +906,17 @@
       <c r="E16" s="1">
         <v>24</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="6">
         <v>2.4</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="5">
+        <v>24</v>
+      </c>
+      <c r="H16" s="1">
         <v>1500</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -843,14 +932,17 @@
       <c r="E17" s="1">
         <v>25</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="6">
         <v>2.5</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="5">
+        <v>25</v>
+      </c>
+      <c r="H17" s="1">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -866,14 +958,17 @@
       <c r="E18" s="1">
         <v>26</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="6">
         <v>2.6</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="5">
+        <v>26</v>
+      </c>
+      <c r="H18" s="1">
         <v>1700</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -889,14 +984,17 @@
       <c r="E19" s="1">
         <v>27</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="6">
         <v>2.7</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="5">
+        <v>27</v>
+      </c>
+      <c r="H19" s="1">
         <v>1800</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -912,14 +1010,17 @@
       <c r="E20" s="1">
         <v>28</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="6">
         <v>2.8</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="5">
+        <v>28</v>
+      </c>
+      <c r="H20" s="1">
         <v>1900</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -935,14 +1036,17 @@
       <c r="E21" s="1">
         <v>29</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="6">
         <v>2.9</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="5">
+        <v>29</v>
+      </c>
+      <c r="H21" s="1">
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -958,14 +1062,17 @@
       <c r="E22" s="1">
         <v>30</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="6">
         <v>3</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="5">
+        <v>30</v>
+      </c>
+      <c r="H22" s="1">
         <v>2100</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -981,14 +1088,17 @@
       <c r="E23" s="1">
         <v>31</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="6">
         <v>3.1</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="5">
+        <v>31</v>
+      </c>
+      <c r="H23" s="1">
         <v>2200</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1004,14 +1114,17 @@
       <c r="E24" s="1">
         <v>32</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="6">
         <v>3.2</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="5">
+        <v>32</v>
+      </c>
+      <c r="H24" s="1">
         <v>2300</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1027,14 +1140,17 @@
       <c r="E25" s="1">
         <v>33</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="6">
         <v>3.3</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="5">
+        <v>33</v>
+      </c>
+      <c r="H25" s="1">
         <v>2400</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1050,14 +1166,17 @@
       <c r="E26" s="1">
         <v>34</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="6">
         <v>3.4</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="5">
+        <v>34</v>
+      </c>
+      <c r="H26" s="1">
         <v>2500</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1073,14 +1192,17 @@
       <c r="E27" s="1">
         <v>35</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="6">
         <v>3.5</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="5">
+        <v>35</v>
+      </c>
+      <c r="H27" s="1">
         <v>2600</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1096,14 +1218,17 @@
       <c r="E28" s="1">
         <v>36</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="6">
         <v>3.6</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="5">
+        <v>36</v>
+      </c>
+      <c r="H28" s="1">
         <v>2700</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1119,14 +1244,17 @@
       <c r="E29" s="1">
         <v>37</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="6">
         <v>3.7</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="5">
+        <v>37</v>
+      </c>
+      <c r="H29" s="1">
         <v>2800</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1142,14 +1270,17 @@
       <c r="E30" s="1">
         <v>38</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="6">
         <v>3.8</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="5">
+        <v>38</v>
+      </c>
+      <c r="H30" s="1">
         <v>2900</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1165,14 +1296,17 @@
       <c r="E31" s="1">
         <v>39</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="6">
         <v>3.9</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="5">
+        <v>39</v>
+      </c>
+      <c r="H31" s="1">
         <v>3000</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1188,14 +1322,17 @@
       <c r="E32" s="1">
         <v>40</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="6">
         <v>4</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="5">
+        <v>40</v>
+      </c>
+      <c r="H32" s="1">
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1211,14 +1348,17 @@
       <c r="E33" s="1">
         <v>41</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="5">
+        <v>41</v>
+      </c>
+      <c r="H33" s="1">
         <v>3200</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1234,14 +1374,17 @@
       <c r="E34" s="1">
         <v>42</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="6">
         <v>4.2</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="5">
+        <v>42</v>
+      </c>
+      <c r="H34" s="1">
         <v>3300</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1257,14 +1400,17 @@
       <c r="E35" s="1">
         <v>43</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="6">
         <v>4.3</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="5">
+        <v>43</v>
+      </c>
+      <c r="H35" s="1">
         <v>3400</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1280,14 +1426,17 @@
       <c r="E36" s="1">
         <v>44</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="5">
+        <v>44</v>
+      </c>
+      <c r="H36" s="1">
         <v>3500</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1303,14 +1452,17 @@
       <c r="E37" s="1">
         <v>45</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="6">
         <v>4.5</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="5">
+        <v>45</v>
+      </c>
+      <c r="H37" s="1">
         <v>3600</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1326,14 +1478,17 @@
       <c r="E38" s="1">
         <v>46</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="5">
+        <v>46</v>
+      </c>
+      <c r="H38" s="1">
         <v>3700</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1349,14 +1504,17 @@
       <c r="E39" s="1">
         <v>47</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="6">
         <v>4.7</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="5">
+        <v>47</v>
+      </c>
+      <c r="H39" s="1">
         <v>3800</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1372,14 +1530,17 @@
       <c r="E40" s="1">
         <v>48</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="6">
         <v>4.8</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="5">
+        <v>48</v>
+      </c>
+      <c r="H40" s="1">
         <v>3900</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1395,14 +1556,17 @@
       <c r="E41" s="1">
         <v>49</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="6">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="5">
+        <v>49</v>
+      </c>
+      <c r="H41" s="1">
         <v>4000</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1418,14 +1582,17 @@
       <c r="E42" s="1">
         <v>50</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="6">
         <v>5</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="5">
+        <v>50</v>
+      </c>
+      <c r="H42" s="1">
         <v>4100</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1441,14 +1608,17 @@
       <c r="E43" s="1">
         <v>51</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="6">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="5">
+        <v>51</v>
+      </c>
+      <c r="H43" s="1">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1464,14 +1634,17 @@
       <c r="E44" s="1">
         <v>52</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="6">
         <v>5.2</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="5">
+        <v>52</v>
+      </c>
+      <c r="H44" s="1">
         <v>4300</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1487,14 +1660,17 @@
       <c r="E45" s="1">
         <v>53</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="6">
         <v>5.3</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="5">
+        <v>53</v>
+      </c>
+      <c r="H45" s="1">
         <v>4400</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1510,14 +1686,17 @@
       <c r="E46" s="1">
         <v>54</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="6">
         <v>5.4</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="5">
+        <v>54</v>
+      </c>
+      <c r="H46" s="1">
         <v>4500</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1533,14 +1712,17 @@
       <c r="E47" s="1">
         <v>55</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="6">
         <v>5.5</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="5">
+        <v>55</v>
+      </c>
+      <c r="H47" s="1">
         <v>4600</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1556,14 +1738,17 @@
       <c r="E48" s="1">
         <v>56</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="6">
         <v>5.6</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="5">
+        <v>56</v>
+      </c>
+      <c r="H48" s="1">
         <v>4700</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1579,14 +1764,17 @@
       <c r="E49" s="1">
         <v>57</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="6">
         <v>5.7</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="5">
+        <v>57</v>
+      </c>
+      <c r="H49" s="1">
         <v>4800</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1602,14 +1790,17 @@
       <c r="E50" s="1">
         <v>58</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="6">
         <v>5.8</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="5">
+        <v>58</v>
+      </c>
+      <c r="H50" s="1">
         <v>4900</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1625,10 +1816,13 @@
       <c r="E51" s="1">
         <v>59</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="6">
         <v>5.9</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="5">
+        <v>59</v>
+      </c>
+      <c r="H51" s="1">
         <v>5000</v>
       </c>
     </row>
